--- a/public/Sample_assessments_True or False.xlsx
+++ b/public/Sample_assessments_True or False.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="1188"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Sharks are mammals.</t>
   </si>
@@ -58,12 +63,15 @@
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>question_type_five</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,19 +402,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -425,9 +434,11 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -446,8 +457,11 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -466,8 +480,11 @@
       <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -486,8 +503,11 @@
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -505,6 +525,9 @@
       </c>
       <c r="F5" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/Sample_assessments_True or False.xlsx
+++ b/public/Sample_assessments_True or False.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="1188"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Sharks are mammals.</t>
   </si>
@@ -63,15 +58,12 @@
   </si>
   <si>
     <t>answer</t>
-  </si>
-  <si>
-    <t>question_type_five</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,20 +394,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -434,11 +425,9 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -457,11 +446,8 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -480,11 +466,8 @@
       <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -503,11 +486,8 @@
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -525,9 +505,6 @@
       </c>
       <c r="F5" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
